--- a/data/expt_2/raw_transcripts/game46.xlsx
+++ b/data/expt_2/raw_transcripts/game46.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="146">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Okay, now you guys are on camera.</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve"> And [id96], you're going to touch the one that you think it is.</t>
@@ -534,7 +540,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -544,6 +550,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -740,12 +750,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+      <selection pane="bottomLeft" activeCell="I134" activeCellId="0" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -778,6 +788,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -787,10 +800,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,10 +814,10 @@
         <v>6000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,10 +828,10 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,10 +842,10 @@
         <v>11000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,10 +856,10 @@
         <v>15000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,10 +870,10 @@
         <v>17000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,10 +884,10 @@
         <v>19000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,10 +898,10 @@
         <v>21000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,10 +912,10 @@
         <v>25000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,10 +926,10 @@
         <v>28000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,10 +940,10 @@
         <v>36000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,10 +954,10 @@
         <v>41000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,10 +968,10 @@
         <v>45000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,10 +982,10 @@
         <v>45000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,10 +996,10 @@
         <v>52000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -997,10 +1010,10 @@
         <v>59400</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,10 +1024,10 @@
         <v>63780</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,10 +1038,10 @@
         <v>70820</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,10 +1052,10 @@
         <v>73140</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,10 +1066,10 @@
         <v>73140</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,10 +1080,10 @@
         <v>78900</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1081,10 +1094,10 @@
         <v>84900</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,10 +1108,10 @@
         <v>91280</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,10 +1122,10 @@
         <v>92620</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,10 +1136,10 @@
         <v>94960</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,10 +1150,10 @@
         <v>98840</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,10 +1164,10 @@
         <v>99360</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,10 +1178,10 @@
         <v>101900</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,10 +1192,10 @@
         <v>106040</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,10 +1206,10 @@
         <v>109280</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,10 +1220,10 @@
         <v>112860</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,10 +1234,10 @@
         <v>114340</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,10 +1248,10 @@
         <v>117720</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,10 +1262,10 @@
         <v>119060</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,10 +1276,10 @@
         <v>121860</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,10 +1290,10 @@
         <v>123860</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,19 +1304,22 @@
         <v>124860</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,10 +1330,10 @@
         <v>127860</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,10 +1344,10 @@
         <v>128860</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,10 +1358,10 @@
         <v>129860</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,10 +1372,10 @@
         <v>131860</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,10 +1386,10 @@
         <v>134860</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,19 +1400,22 @@
         <v>138860</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,10 +1426,10 @@
         <v>142860</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,10 +1440,10 @@
         <v>144860</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,10 +1454,10 @@
         <v>146860</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,10 +1468,10 @@
         <v>150860</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,19 +1482,22 @@
         <v>151860</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,10 +1508,10 @@
         <v>155860</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,10 +1522,10 @@
         <v>159860</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,19 +1536,22 @@
         <v>161860</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,10 +1562,10 @@
         <v>163860</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,10 +1576,10 @@
         <v>165860</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,10 +1590,10 @@
         <v>171860</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,10 +1604,10 @@
         <v>173860</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,10 +1618,10 @@
         <v>177860</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,10 +1632,10 @@
         <v>178860</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,19 +1646,22 @@
         <v>182860</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,10 +1672,10 @@
         <v>183860</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,10 +1686,10 @@
         <v>184860</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,10 +1700,10 @@
         <v>192860</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1686,19 +1714,22 @@
         <v>197860</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,10 +1740,10 @@
         <v>198860</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,10 +1754,10 @@
         <v>200860</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,10 +1768,10 @@
         <v>201860</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1782,10 @@
         <v>204860</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,10 +1796,10 @@
         <v>206860</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1779,19 +1810,22 @@
         <v>209860</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1802,10 +1836,10 @@
         <v>213860</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,10 +1850,10 @@
         <v>216860</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,10 +1864,10 @@
         <v>219860</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,19 +1878,22 @@
         <v>220860</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,10 +1904,10 @@
         <v>225860</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1881,10 +1918,10 @@
         <v>229860</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,10 +1932,10 @@
         <v>231860</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,10 +1946,10 @@
         <v>234860</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1923,19 +1960,22 @@
         <v>236860</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,10 +1986,10 @@
         <v>238860</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1960,10 +2000,10 @@
         <v>240860</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,10 +2014,10 @@
         <v>244860</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,19 +2028,22 @@
         <v>247860</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,13 +2054,16 @@
         <v>249860</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,10 +2074,10 @@
         <v>250860</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,10 +2088,10 @@
         <v>253860</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,10 +2102,10 @@
         <v>255860</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,10 +2116,10 @@
         <v>257860</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,10 +2130,10 @@
         <v>261860</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,10 +2144,10 @@
         <v>263860</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2112,19 +2158,22 @@
         <v>265860</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,10 +2184,10 @@
         <v>267860</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,19 +2198,22 @@
         <v>269860</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2172,10 +2224,10 @@
         <v>279860</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,10 +2238,10 @@
         <v>281860</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,10 +2252,10 @@
         <v>287860</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,10 +2266,10 @@
         <v>290860</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,19 +2280,22 @@
         <v>291860</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,10 +2306,10 @@
         <v>293860</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2265,16 +2320,19 @@
         <v>296860</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,10 +2343,10 @@
         <v>298860</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,10 +2357,10 @@
         <v>300860</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,10 +2371,10 @@
         <v>303860</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2327,10 +2385,10 @@
         <v>306860</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,19 +2399,22 @@
         <v>308860</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E104" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,13 +2425,16 @@
         <v>310860</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2381,10 +2445,10 @@
         <v>312860</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,10 +2459,10 @@
         <v>313860</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2409,10 +2473,10 @@
         <v>316860</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,10 +2487,10 @@
         <v>317860</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,19 +2501,22 @@
         <v>319860</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,10 +2527,10 @@
         <v>321860</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,10 +2541,10 @@
         <v>323860</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2488,10 +2555,10 @@
         <v>325860</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,19 +2569,22 @@
         <v>329860</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E114" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,13 +2595,16 @@
         <v>330860</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,15 +2615,18 @@
         <v>331860</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H116" s="2"/>
+      <c r="I116" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
@@ -2560,10 +2636,10 @@
         <v>333860</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,10 +2650,10 @@
         <v>335860</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,10 +2664,10 @@
         <v>339860</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,19 +2678,22 @@
         <v>341860</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>16</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,10 +2704,10 @@
         <v>343860</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2639,10 +2718,10 @@
         <v>345860</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2653,10 +2732,10 @@
         <v>350860</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,19 +2746,22 @@
         <v>350860</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,10 +2772,10 @@
         <v>353860</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,10 +2786,10 @@
         <v>357860</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,19 +2800,22 @@
         <v>358860</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,10 +2826,10 @@
         <v>361860</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,10 +2840,10 @@
         <v>365860</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2769,10 +2854,10 @@
         <v>369860</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,19 +2868,22 @@
         <v>376860</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,10 +2894,10 @@
         <v>381860</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2820,16 +2908,19 @@
         <v>386860</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,10 +2931,10 @@
         <v>388860</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,10 +2945,10 @@
         <v>390860</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,10 +2959,10 @@
         <v>395860</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +2973,10 @@
         <v>397860</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,10 +2987,10 @@
         <v>398860</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,10 +3001,10 @@
         <v>404860</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
